--- a/연구소/개발 AI 비교·분석 보고서.xlsx
+++ b/연구소/개발 AI 비교·분석 보고서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0ca47fc2879dc50/바탕 화면/연구소/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0434B4A0-2F07-4247-9E96-D7E09D0D55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{0434B4A0-2F07-4247-9E96-D7E09D0D55A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{942B1888-0CFD-4226-87BB-AD51B92A2DD2}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{15189EBC-5C59-4DE5-AFE9-1EE93776B2FF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>개발 AI 비교·분석 보고서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,10 +82,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cluade Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Anthropic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,18 +98,28 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Windows,
-macOS,
-Linux</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Python 3.8 이상,
-Git</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주요 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claude Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Node.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Windows 10+,
+macOS 10.15+,
+Linux
+(Ubuntu 20.04+/
+Debian 10+)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Claude의 유료 플랜에
+ 포함된 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -545,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1D71EF-07B0-4D1C-B357-8DA4B5A5EDB3}">
   <dimension ref="B2:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,92 +561,101 @@
     <col min="3" max="11" width="20.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="63.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="4"/>
       <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="49.5" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="33" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="D10" s="1">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:4" ht="33" x14ac:dyDescent="0.3">
       <c r="B15" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
